--- a/biology/Botanique/Franciscus_Jozef_Breteler/Franciscus_Jozef_Breteler.xlsx
+++ b/biology/Botanique/Franciscus_Jozef_Breteler/Franciscus_Jozef_Breteler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Franciscus Jozef Breteler, né en 1932, est un botaniste, taxonomiste et universitaire néerlandais, spécialiste de la flore africaine. Il collecta des spécimens notamment dans les pays suivants : Angola, Cameroun, Côte d'Ivoire, Gabon, Liberia, Madagascar, Togo, également au Venezuela et aux Pays-Bas[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franciscus Jozef Breteler, né en 1932, est un botaniste, taxonomiste et universitaire néerlandais, spécialiste de la flore africaine. Il collecta des spécimens notamment dans les pays suivants : Angola, Cameroun, Côte d'Ivoire, Gabon, Liberia, Madagascar, Togo, également au Venezuela et aux Pays-Bas.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les épithètes spécifiques de plusieurs espèces lui rendent hommage, telles que : Baphia breteleriana, Empogona breteleri, Eugenia breteleri, Hymenostegia breteleri, Justicia breteleri, Manettia breteleri, Memecylon breteleranum, Pristimera breteleri, Rhaptopetalum breteleri, Talbotiella breteleri ou Tricalysia breteleri.
 </t>
@@ -542,7 +556,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The African Dichapetalaceae : a taxonomical revision ; this first instalment contains the treatment of the species a-b in Dichapetalum ; a provisional key to the continent African species is added, Wageningen Veenman, 1973
 Polygalaceae, Jardin botanique national de Belgique, Meise, 1979 (en collab. avec A. Smissaert-Houwing)
